--- a/祁庚浩-作業報告.xlsx
+++ b/祁庚浩-作業報告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\70989969\HitachiXPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5B144-525E-4AC1-8BCD-B354667F5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986B81B0-9C77-4F47-B662-E5D3B09A8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>安全規則を読みました</t>
     <phoneticPr fontId="1"/>
@@ -116,12 +116,78 @@
   <si>
     <t>ソフトウェアを再インストールすると問題が解決しました</t>
   </si>
+  <si>
+    <t>刑さんと話し合った結果、D 層のコードを定義する必要はなく、関連する部分を呼び出すだけであることがわかりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dbファイルを手動生成して、junit起動ことができました</t>
+    <rPh sb="7" eb="8">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書、基本設計書、PCLなどのエクセルファイルを読み、エクセルのデータインデックスを指摘しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蔡さん に PCL 単体テストの書き方を聞きました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2023/3/1~2023/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/6</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分でPCLテストコラムを書いてみました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/3/6~2023/3/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斉藤さんのコードを単体テストことが調査しました。</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刑さん と単体テストの作業方法について話し合う</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +208,13 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,6 +486,172 @@
         <a:xfrm>
           <a:off x="0" y="9626600"/>
           <a:ext cx="7353300" cy="2508250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285371</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BB8085-1A7A-BA05-50AC-5D3E63155719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12827000"/>
+          <a:ext cx="3028571" cy="628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB32C47-EF2C-1951-8F1D-79CF0F28F630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13741400"/>
+          <a:ext cx="9486900" cy="2279650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F967539A-0184-2C9E-CA99-2095F931E2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16027400"/>
+          <a:ext cx="6800850" cy="2717800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -811,6 +1050,51 @@
         <v>15</v>
       </c>
     </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/祁庚浩-作業報告.xlsx
+++ b/祁庚浩-作業報告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\70989969\HitachiXPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986B81B0-9C77-4F47-B662-E5D3B09A8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB2D68-E8EE-4C6A-97B2-28D9AD09AA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>安全規則を読みました</t>
     <phoneticPr fontId="1"/>
@@ -182,12 +182,48 @@
     <t>刑さん と単体テストの作業方法について話し合う</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>その後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外のスローに関する単体テストは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．030料金のテストはエラーが発生しました。</t>
+  </si>
+  <si>
+    <t>２．新しいF層のコード実装した場合は、エラーが発生しました。</t>
+  </si>
+  <si>
+    <t>3.pcl の入出力条件がどのようにコードに反映されているのかわかりません。</t>
+  </si>
+  <si>
+    <t>単体テストで最近発生した問題は以下。</t>
+  </si>
+  <si>
+    <r>
+      <t>調査を続けます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +252,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,10 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -652,6 +697,233 @@
         <a:xfrm>
           <a:off x="0" y="16027400"/>
           <a:ext cx="6800850" cy="2717800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>554474</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>120440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED4E564-F7E2-F3DE-43F8-6173ABE4F81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31750" y="20643850"/>
+          <a:ext cx="9209524" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88045729-67E1-EEB4-50B1-542F8AEA2AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22885400"/>
+          <a:ext cx="7620000" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96804714-58F5-17BB-9E5B-6C1CA7F97FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24257000"/>
+          <a:ext cx="7620000" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2416B412-4DBD-0DC6-F130-4696FAAE3707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26085800"/>
+          <a:ext cx="7620000" cy="1231900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1065,6 +1337,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>18</v>
@@ -1093,6 +1370,45 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
